--- a/Document/Kho Spare part_V1.xlsx
+++ b/Document/Kho Spare part_V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. MAI VAN TOI\9. SMT Goal\2020 Goal\6 tháng cuối năm\System\Kho spare part\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\SPW\CHUONG_TRINH_SPARE_PART\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
   <si>
     <t>XÂY DỰNG HỆ THỐNG KHO - SPARE PART</t>
   </si>
@@ -176,7 +176,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -236,7 +236,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -253,7 +253,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -270,7 +270,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -290,7 +290,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -307,7 +307,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -325,7 +325,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -347,7 +347,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -367,7 +367,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -392,7 +392,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -438,38 +438,6 @@
   </si>
   <si>
     <t>- Cài đặt barcode cho vị trí</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Bắn mã barcode trên part </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Bắn mã barcode vị trí → Nhập số lượng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>THIẾT LẬP TÀI KHOẢN</t>
@@ -564,6 +532,51 @@
   <si>
     <t>QUẢN LÝ MÃ HÀNG</t>
   </si>
+  <si>
+    <t>đưa cảnh báo khi sắp đến hạn giao hàng là cách ngày giao bao nhiêu ngày  ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In và dán mã quản lý lên part =&gt; mã được tạo ntn
+</t>
+  </si>
+  <si>
+    <t>Cài đặt barcode cho Part như thế nào?</t>
+  </si>
+  <si>
+    <t>Tạo mã qly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Bắn mã barcode trên part </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bắn mã barcode vị trí → Nhập số lượng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -573,11 +586,11 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -585,7 +598,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -599,7 +612,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -612,7 +625,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -626,7 +639,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -634,7 +647,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -642,7 +655,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -650,35 +663,35 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -686,7 +699,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -694,7 +707,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -702,41 +715,41 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -744,7 +757,33 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -1082,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1124,9 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1351,6 +1387,23 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2579,6 +2632,9 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400" dirty="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
@@ -2627,6 +2683,9 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400" dirty="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
@@ -3803,6 +3862,1385 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
+    <dsp:sp modelId="{A946C573-67C7-474D-B65F-1596EC8B2293}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5100951" y="2025970"/>
+          <a:ext cx="323756" cy="2519543"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2519543"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323756" y="2519543"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{691D798B-991A-AC48-89E6-55D61A483816}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5100951" y="2025970"/>
+          <a:ext cx="323756" cy="1568013"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1568013"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323756" y="1568013"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C8740E0F-B70E-9346-863A-9E84A977A90E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5100951" y="2025970"/>
+          <a:ext cx="323756" cy="616484"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="616484"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323756" y="616484"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{33B97A8D-6867-8647-8501-22DD0DA76F56}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3524487" y="1074441"/>
+          <a:ext cx="2439816" cy="281438"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="140719"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2439816" y="140719"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2439816" y="281438"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F550E2AF-71D4-CB45-8E7E-ED83BAA6CE06}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2661135" y="2025970"/>
+          <a:ext cx="323756" cy="1568013"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1568013"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323756" y="1568013"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E4EFAB48-DA96-9B4F-AA3B-87F088B6F953}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2661135" y="2025970"/>
+          <a:ext cx="323756" cy="616484"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="616484"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323756" y="616484"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F4F4764E-673A-7343-A5C6-A649F149BFDD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3478767" y="1074441"/>
+          <a:ext cx="91440" cy="281438"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="281438"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5C5DE8F0-2522-2B40-8270-70C3D06FB5E7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="221319" y="2025970"/>
+          <a:ext cx="323756" cy="616484"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="616484"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="323756" y="616484"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F852AB9B-87E8-744B-A8E0-5ADF15314064}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1084670" y="1074441"/>
+          <a:ext cx="2439816" cy="281438"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="2439816" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2439816" y="140719"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="140719"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="281438"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{77CE08EA-0003-A24B-97B1-A238DE458EC7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2553477" y="404349"/>
+          <a:ext cx="1942018" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="0070C0">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="0070C0">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0070C0">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phân hệ quản lý kho</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>spare part</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200" dirty="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2553477" y="404349"/>
+        <a:ext cx="1942018" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C5DEF534-E821-1940-9E99-E4D5D798D11A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5482" y="1355879"/>
+          <a:ext cx="2158377" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent2">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Quản lý mã hàng	</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5482" y="1355879"/>
+        <a:ext cx="2158377" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DB1F998C-6F95-844C-8AF2-C4CEE852C71B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="545076" y="2307409"/>
+          <a:ext cx="1340182" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Quản lý mã hàng trong hệ thống</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200" dirty="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="545076" y="2307409"/>
+        <a:ext cx="1340182" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DE6C3323-EE02-AD44-8B26-7BD83C498C6E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2445298" y="1355879"/>
+          <a:ext cx="2158377" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent2">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Quản lý hoạt động nhập kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200" dirty="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2445298" y="1355879"/>
+        <a:ext cx="2158377" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6557879F-E172-D741-B59C-7DDE5355AD7D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2984892" y="2307409"/>
+          <a:ext cx="1340182" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhập kho mua hàng</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2984892" y="2307409"/>
+        <a:ext cx="1340182" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8A50514A-F660-B340-9C8A-AF508EAB63EB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2984892" y="3258939"/>
+          <a:ext cx="1340182" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhập kho trực tiếp</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2984892" y="3258939"/>
+        <a:ext cx="1340182" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{116B8BF1-22F6-EB44-B282-F7430A9D6037}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4885114" y="1355879"/>
+          <a:ext cx="2158377" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent2">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Quản lý hoạt động xuất kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200" dirty="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4885114" y="1355879"/>
+        <a:ext cx="2158377" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DE982E95-0A61-DB48-902A-5585985E98F8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5424708" y="2307409"/>
+          <a:ext cx="1340182" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xuất kho sản xuất</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200" dirty="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5424708" y="2307409"/>
+        <a:ext cx="1340182" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{34EE1FDC-1ED1-D74B-A6BE-B4A6AF9DA276}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5424708" y="3258939"/>
+          <a:ext cx="1340182" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xuất chuyển kho</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5424708" y="3258939"/>
+        <a:ext cx="1340182" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D5C3F140-941B-194C-8F6C-FB79C733DC94}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5424708" y="4210468"/>
+          <a:ext cx="1340182" cy="670091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200" dirty="0" smtClean="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xuất phụ tùng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200" dirty="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5424708" y="4210468"/>
+        <a:ext cx="1340182" cy="670091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -6091,8 +7529,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="516275" y="5899897"/>
-          <a:ext cx="2333277" cy="2887736"/>
+          <a:off x="471452" y="6236074"/>
+          <a:ext cx="2097953" cy="3067030"/>
           <a:chOff x="435592" y="1143000"/>
           <a:chExt cx="2340000" cy="2914630"/>
         </a:xfrm>
@@ -6590,8 +8028,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2786880" y="5909422"/>
-          <a:ext cx="2333276" cy="2887736"/>
+          <a:off x="2506733" y="6245599"/>
+          <a:ext cx="2040803" cy="3067030"/>
           <a:chOff x="2550995" y="1143000"/>
           <a:chExt cx="2340000" cy="2914630"/>
         </a:xfrm>
@@ -7078,8 +8516,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5057484" y="5918947"/>
-          <a:ext cx="2331036" cy="2887736"/>
+          <a:off x="4542014" y="6255124"/>
+          <a:ext cx="2017270" cy="3067030"/>
           <a:chOff x="4666398" y="1143000"/>
           <a:chExt cx="2340000" cy="2914630"/>
         </a:xfrm>
@@ -7584,8 +9022,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7808501" y="5888691"/>
-          <a:ext cx="2333277" cy="2887736"/>
+          <a:off x="6960215" y="6224868"/>
+          <a:ext cx="2038563" cy="3067030"/>
           <a:chOff x="435592" y="1143000"/>
           <a:chExt cx="2340000" cy="2914630"/>
         </a:xfrm>
@@ -8130,8 +9568,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10060056" y="5888691"/>
-          <a:ext cx="2333276" cy="2887736"/>
+          <a:off x="8917056" y="6224868"/>
+          <a:ext cx="2097953" cy="3067030"/>
           <a:chOff x="2550995" y="1143000"/>
           <a:chExt cx="2340000" cy="2914630"/>
         </a:xfrm>
@@ -8611,8 +10049,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12302085" y="5888691"/>
-          <a:ext cx="2331036" cy="2887736"/>
+          <a:off x="10923762" y="6224868"/>
+          <a:ext cx="2086187" cy="3067030"/>
           <a:chOff x="4666398" y="1143000"/>
           <a:chExt cx="2340000" cy="2914630"/>
         </a:xfrm>
@@ -9143,8 +10581,8 @@
       <xdr:rowOff>79515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>48990</xdr:rowOff>
     </xdr:to>
@@ -9155,8 +10593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990022" y="4883428"/>
-          <a:ext cx="2062369" cy="333910"/>
+          <a:off x="2689412" y="5839339"/>
+          <a:ext cx="2073088" cy="350475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9214,14 +10652,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>354104</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77834</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>234834</xdr:colOff>
+      <xdr:colOff>504265</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>47309</xdr:rowOff>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9230,8 +10668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10271310" y="5523893"/>
-          <a:ext cx="1931406" cy="328063"/>
+          <a:off x="9128310" y="5692588"/>
+          <a:ext cx="1965514" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9531,8 +10969,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419743" y="853902"/>
-          <a:ext cx="4828178" cy="669214"/>
+          <a:off x="374920" y="887520"/>
+          <a:ext cx="4279089" cy="714038"/>
           <a:chOff x="599276" y="2131654"/>
           <a:chExt cx="4838485" cy="681485"/>
         </a:xfrm>
@@ -9825,8 +11263,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="439450" y="1635508"/>
-          <a:ext cx="4828177" cy="669216"/>
+          <a:off x="394627" y="1713950"/>
+          <a:ext cx="4279088" cy="714039"/>
           <a:chOff x="599276" y="2131656"/>
           <a:chExt cx="4838484" cy="681486"/>
         </a:xfrm>
@@ -10119,8 +11557,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="459157" y="2390077"/>
-          <a:ext cx="4828177" cy="669214"/>
+          <a:off x="414334" y="2513342"/>
+          <a:ext cx="4279088" cy="714038"/>
           <a:chOff x="599276" y="2131655"/>
           <a:chExt cx="4838484" cy="681485"/>
         </a:xfrm>
@@ -10413,8 +11851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="481138" y="3147334"/>
-          <a:ext cx="4828177" cy="673095"/>
+          <a:off x="436315" y="3326629"/>
+          <a:ext cx="4279088" cy="706712"/>
           <a:chOff x="599276" y="2131655"/>
           <a:chExt cx="4838484" cy="681485"/>
         </a:xfrm>
@@ -10883,8 +12321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="481138" y="3905925"/>
-          <a:ext cx="4828177" cy="670170"/>
+          <a:off x="436315" y="4130043"/>
+          <a:ext cx="4279088" cy="714994"/>
           <a:chOff x="599276" y="2131655"/>
           <a:chExt cx="4838484" cy="681485"/>
         </a:xfrm>
@@ -11948,7 +13386,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>634836</xdr:colOff>
+      <xdr:colOff>596736</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>66854</xdr:rowOff>
     </xdr:to>
@@ -12200,7 +13638,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>648505</xdr:colOff>
+      <xdr:colOff>600880</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47330</xdr:rowOff>
     </xdr:to>
@@ -12332,7 +13770,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>656532</xdr:colOff>
+      <xdr:colOff>599382</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>109656</xdr:rowOff>
     </xdr:to>
@@ -14619,7 +16057,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>648444</xdr:colOff>
+      <xdr:colOff>600819</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>189319</xdr:rowOff>
     </xdr:to>
@@ -14871,7 +16309,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>662113</xdr:colOff>
+      <xdr:colOff>595438</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>156187</xdr:rowOff>
     </xdr:to>
@@ -15003,7 +16441,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>670140</xdr:colOff>
+      <xdr:colOff>603465</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>28014</xdr:rowOff>
     </xdr:to>
@@ -16475,7 +17913,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>634837</xdr:colOff>
+      <xdr:colOff>596737</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>80462</xdr:rowOff>
     </xdr:to>
@@ -16771,7 +18209,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>648506</xdr:colOff>
+      <xdr:colOff>600881</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>60937</xdr:rowOff>
     </xdr:to>
@@ -16903,7 +18341,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>645323</xdr:colOff>
+      <xdr:colOff>597698</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
@@ -18342,7 +19780,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
+      <xdr:colOff>601435</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
@@ -19276,10 +20714,10 @@
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19381,8 +20819,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5210736" y="20697261"/>
-          <a:ext cx="795617" cy="952501"/>
+          <a:off x="4661648" y="20697261"/>
+          <a:ext cx="717175" cy="952501"/>
           <a:chOff x="13940118" y="19150852"/>
           <a:chExt cx="795617" cy="952501"/>
         </a:xfrm>
@@ -19583,8 +21021,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="541276" y="828690"/>
-          <a:ext cx="7569942" cy="8217348"/>
+          <a:off x="493651" y="857265"/>
+          <a:ext cx="6722217" cy="8645973"/>
           <a:chOff x="299824" y="17814683"/>
           <a:chExt cx="7263026" cy="8032084"/>
         </a:xfrm>
@@ -22473,8 +23911,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="566356" y="912221"/>
-          <a:ext cx="6746172" cy="7331646"/>
+          <a:off x="518731" y="940796"/>
+          <a:ext cx="5955597" cy="7712646"/>
           <a:chOff x="299823" y="17026411"/>
           <a:chExt cx="6642881" cy="7154429"/>
         </a:xfrm>
@@ -24453,8 +25891,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="394062" y="809148"/>
-          <a:ext cx="7554577" cy="11579244"/>
+          <a:off x="349239" y="842766"/>
+          <a:ext cx="6658106" cy="12296421"/>
           <a:chOff x="399105" y="11513567"/>
           <a:chExt cx="7569144" cy="11686821"/>
         </a:xfrm>
@@ -26546,8 +27984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="395007" y="12978088"/>
-          <a:ext cx="7554573" cy="11577568"/>
+          <a:off x="350184" y="13751294"/>
+          <a:ext cx="6658102" cy="12305951"/>
           <a:chOff x="45916" y="916319"/>
           <a:chExt cx="7533735" cy="11427545"/>
         </a:xfrm>
@@ -30975,8 +32413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15144750" y="1333500"/>
-          <a:ext cx="4195082" cy="4925786"/>
+          <a:off x="13647964" y="1428750"/>
+          <a:ext cx="3786868" cy="5306786"/>
           <a:chOff x="15144750" y="1333500"/>
           <a:chExt cx="4195082" cy="4925786"/>
         </a:xfrm>
@@ -37344,8 +38782,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12573000" y="124587000"/>
-          <a:ext cx="57721500" cy="3060000"/>
+          <a:off x="10858500" y="124587000"/>
+          <a:ext cx="49434750" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -37508,8 +38946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12573000" y="102679500"/>
-          <a:ext cx="57721500" cy="3060000"/>
+          <a:off x="10858500" y="102679500"/>
+          <a:ext cx="49434750" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -37672,8 +39110,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12573000" y="81057750"/>
-          <a:ext cx="57721500" cy="3060000"/>
+          <a:off x="10858500" y="81057750"/>
+          <a:ext cx="49434750" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -37836,8 +39274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12573000" y="59626500"/>
-          <a:ext cx="57721500" cy="3060000"/>
+          <a:off x="10858500" y="59626500"/>
+          <a:ext cx="49434750" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -41195,8 +42633,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76676250" y="124587000"/>
-          <a:ext cx="21960000" cy="3060000"/>
+          <a:off x="65722500" y="124587000"/>
+          <a:ext cx="18892950" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -41359,8 +42797,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76676250" y="102679500"/>
-          <a:ext cx="21960000" cy="3060000"/>
+          <a:off x="65722500" y="102679500"/>
+          <a:ext cx="18892950" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -41523,8 +42961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76676250" y="81057750"/>
-          <a:ext cx="21960000" cy="3060000"/>
+          <a:off x="65722500" y="81057750"/>
+          <a:ext cx="18892950" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -41687,8 +43125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76676250" y="59626500"/>
-          <a:ext cx="21960000" cy="3060000"/>
+          <a:off x="65722500" y="59626500"/>
+          <a:ext cx="18892950" cy="3060000"/>
           <a:chOff x="82867500" y="74295000"/>
           <a:chExt cx="57721500" cy="3060000"/>
         </a:xfrm>
@@ -42855,324 +44293,324 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9" style="31"/>
-    <col min="4" max="4" width="16.75" style="31" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="31" customWidth="1"/>
-    <col min="6" max="8" width="23.625" style="31" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31"/>
+    <col min="1" max="3" width="9" style="30"/>
+    <col min="4" max="4" width="16.7109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="30" customWidth="1"/>
+    <col min="6" max="8" width="23.5703125" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:12" ht="15.75" thickBot="1"/>
-    <row r="4" spans="4:12" ht="22.5">
-      <c r="D4" s="77" t="s">
+    <row r="4" spans="4:12" ht="23.25">
+      <c r="D4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="4:12">
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="4:12">
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="4:12" ht="59.25" customHeight="1">
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="54" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="33" customHeight="1">
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="53"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="4:12" ht="38.25" customHeight="1">
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87" t="s">
+      <c r="E9" s="85"/>
+      <c r="F9" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="4:12" ht="9.75" customHeight="1">
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="4:12" ht="11.25" customHeight="1">
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="4:12" ht="15" hidden="1" customHeight="1">
-      <c r="D12" s="65"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="4:12">
-      <c r="D13" s="65"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="4:12">
-      <c r="D14" s="65"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="4:12">
-      <c r="D15" s="65"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="4:12">
-      <c r="D16" s="65"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="65"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
     </row>
     <row r="18" spans="4:8" ht="15" customHeight="1">
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="4:8" ht="15" customHeight="1">
-      <c r="D19" s="65"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="4:8" ht="15" customHeight="1">
-      <c r="D20" s="65"/>
-      <c r="E20" s="52" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="4:8" ht="15" customHeight="1">
-      <c r="D21" s="65"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="64"/>
+      <c r="E21" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="4:8" ht="15" customHeight="1">
-      <c r="D22" s="66"/>
-      <c r="E22" s="52" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="4:8" ht="15" customHeight="1">
-      <c r="D23" s="66"/>
-      <c r="E23" s="52" t="s">
+      <c r="D23" s="65"/>
+      <c r="E23" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="4:8" ht="15" customHeight="1">
-      <c r="D24" s="66"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="4:8">
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="4:8">
-      <c r="D26" s="103"/>
-      <c r="E26" s="47" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="4:8">
-      <c r="D27" s="103"/>
-      <c r="E27" s="47" t="s">
+      <c r="D27" s="102"/>
+      <c r="E27" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" spans="4:8">
-      <c r="D28" s="103"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="103"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="4:8">
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
     </row>
     <row r="31" spans="4:8">
-      <c r="D31" s="66"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="4:8">
-      <c r="D32" s="66"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="4:8">
-      <c r="D33" s="66"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="73"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="4:8">
-      <c r="D34" s="66"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="73"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="4:8">
-      <c r="D35" s="66"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
     </row>
     <row r="36" spans="4:8">
-      <c r="D36" s="66"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="4:8">
-      <c r="D37" s="66"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="4:8">
-      <c r="D38" s="66"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="4:8" ht="15.75" thickBot="1">
-      <c r="D39" s="67"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -43199,49 +44637,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y78"/>
+  <dimension ref="B2:Z78"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA41" sqref="Z41:AA41"/>
+      <selection activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15">
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="2:25">
+      <c r="B27" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="2:25">
+      <c r="B28" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="29" t="s">
+    <row r="29" spans="2:25">
+      <c r="B29" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="30" t="s">
+    <row r="30" spans="2:25">
+      <c r="B30" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:25" ht="15" thickBot="1"/>
-    <row r="51" spans="2:25" ht="15">
+    <row r="31" spans="2:25">
+      <c r="Y31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25">
+      <c r="Y32" s="103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="25:25">
+      <c r="Y33" s="104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="25:25">
+      <c r="Y34" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="25:25">
+      <c r="Y35" s="103"/>
+    </row>
+    <row r="50" spans="2:26" ht="15.75" thickBot="1"/>
+    <row r="51" spans="2:26">
       <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
@@ -43269,7 +44730,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="2:25" ht="15">
+    <row r="52" spans="2:26">
       <c r="B52" s="16" t="s">
         <v>2</v>
       </c>
@@ -43301,7 +44762,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="2:25">
+    <row r="53" spans="2:26">
       <c r="B53" s="11" t="s">
         <v>3</v>
       </c>
@@ -43333,7 +44794,7 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="2:25">
+    <row r="54" spans="2:26">
       <c r="B54" s="17" t="s">
         <v>4</v>
       </c>
@@ -43365,7 +44826,7 @@
       <c r="X54" s="6"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="2:25">
+    <row r="55" spans="2:26">
       <c r="B55" s="17" t="s">
         <v>5</v>
       </c>
@@ -43399,7 +44860,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="2:25">
+    <row r="56" spans="2:26">
       <c r="B56" s="17" t="s">
         <v>6</v>
       </c>
@@ -43429,7 +44890,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="2:25" ht="15">
+    <row r="57" spans="2:26">
       <c r="B57" s="17" t="s">
         <v>7</v>
       </c>
@@ -43451,17 +44912,18 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="9" t="s">
-        <v>75</v>
+      <c r="S57" s="107" t="s">
+        <v>110</v>
       </c>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="8"/>
+      <c r="T57" s="106"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="108"/>
+      <c r="Z57" s="103"/>
     </row>
-    <row r="58" spans="2:25">
+    <row r="58" spans="2:26">
       <c r="B58" s="17" t="s">
         <v>25</v>
       </c>
@@ -43483,17 +44945,18 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="26" t="s">
+      <c r="S58" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="8"/>
+      <c r="T58" s="106"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="108"/>
+      <c r="Z58" s="103"/>
     </row>
-    <row r="59" spans="2:25">
+    <row r="59" spans="2:26">
       <c r="B59" s="17" t="s">
         <v>8</v>
       </c>
@@ -43523,7 +44986,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="2:25">
+    <row r="60" spans="2:26">
       <c r="B60" s="17" t="s">
         <v>9</v>
       </c>
@@ -43553,7 +45016,7 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="2:25">
+    <row r="61" spans="2:26">
       <c r="B61" s="17" t="s">
         <v>10</v>
       </c>
@@ -43583,7 +45046,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="2:25">
+    <row r="62" spans="2:26">
       <c r="B62" s="17" t="s">
         <v>13</v>
       </c>
@@ -43611,7 +45074,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="2:25">
+    <row r="63" spans="2:26">
       <c r="B63" s="11" t="s">
         <v>11</v>
       </c>
@@ -43639,7 +45102,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="2:25">
+    <row r="64" spans="2:26">
       <c r="B64" s="11" t="s">
         <v>12</v>
       </c>
@@ -43752,11 +45215,11 @@
       <c r="Y67" s="8"/>
     </row>
     <row r="68" spans="2:25">
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -43779,7 +45242,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="2:25" ht="15" thickBot="1">
+    <row r="69" spans="2:25" ht="15.75" thickBot="1">
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -43805,8 +45268,8 @@
       <c r="X69" s="14"/>
       <c r="Y69" s="15"/>
     </row>
-    <row r="70" spans="2:25" ht="15" thickBot="1"/>
-    <row r="71" spans="2:25" ht="15">
+    <row r="70" spans="2:25" ht="15.75" thickBot="1"/>
+    <row r="71" spans="2:25">
       <c r="B71" s="3" t="s">
         <v>29</v>
       </c>
@@ -43834,7 +45297,7 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="2:25" ht="15">
+    <row r="72" spans="2:25">
       <c r="B72" s="16" t="s">
         <v>31</v>
       </c>
@@ -43944,7 +45407,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="2:25" ht="15" thickBot="1">
+    <row r="76" spans="2:25" ht="15.75" thickBot="1">
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -43977,7 +45440,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -43986,170 +45449,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T2:AE52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W62" sqref="W62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="59"/>
+    <col min="1" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="20:31">
-      <c r="U2" s="60" t="s">
+      <c r="U2" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="20:31">
+      <c r="U3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="64" t="s">
+      <c r="AE3" s="61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="20:31">
-      <c r="U3" s="61" t="s">
+    <row r="4" spans="20:31">
+      <c r="U4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="AE3" s="62" t="s">
+      <c r="AE4" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="20:31">
-      <c r="U4" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE4" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="5" spans="20:31">
-      <c r="AE5" s="62" t="s">
-        <v>105</v>
+      <c r="AE5" s="61" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="20:31">
-      <c r="U6" s="60" t="s">
-        <v>79</v>
+      <c r="U6" s="59" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="20:31">
-      <c r="T7" s="63"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="20:31">
-      <c r="T8" s="63"/>
-      <c r="U8" s="62" t="s">
+      <c r="T8" s="62"/>
+      <c r="U8" s="61" t="s">
         <v>4</v>
       </c>
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="20:31">
-      <c r="T9" s="63"/>
-      <c r="U9" s="62" t="s">
-        <v>80</v>
+      <c r="T9" s="62"/>
+      <c r="U9" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="20:31">
-      <c r="T10" s="63"/>
-      <c r="U10" s="62" t="s">
-        <v>82</v>
+      <c r="T10" s="62"/>
+      <c r="U10" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="20:31">
-      <c r="T11" s="63"/>
-      <c r="U11" s="62" t="s">
-        <v>94</v>
+      <c r="T11" s="62"/>
+      <c r="U11" s="61" t="s">
+        <v>93</v>
       </c>
       <c r="V11" s="6"/>
     </row>
     <row r="12" spans="20:31">
-      <c r="T12" s="63"/>
-      <c r="U12" s="62" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="61" t="s">
         <v>7</v>
       </c>
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="20:31">
-      <c r="T13" s="63"/>
-      <c r="U13" s="62" t="s">
+      <c r="T13" s="62"/>
+      <c r="U13" s="61" t="s">
         <v>10</v>
       </c>
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="20:31">
-      <c r="T14" s="63"/>
-      <c r="U14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="20:31">
-      <c r="T15" s="63"/>
-      <c r="U15" s="60" t="s">
-        <v>83</v>
+      <c r="T15" s="62"/>
+      <c r="U15" s="59" t="s">
+        <v>82</v>
       </c>
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="20:31">
-      <c r="T16" s="63"/>
-      <c r="U16" s="62" t="s">
+      <c r="T16" s="62"/>
+      <c r="U16" s="61" t="s">
         <v>8</v>
       </c>
       <c r="V16" s="6"/>
     </row>
     <row r="17" spans="20:25">
-      <c r="T17" s="63"/>
-      <c r="U17" s="62" t="s">
-        <v>85</v>
+      <c r="T17" s="62"/>
+      <c r="U17" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="V17" s="6"/>
     </row>
     <row r="18" spans="20:25">
-      <c r="T18" s="63"/>
-      <c r="U18" s="62" t="s">
-        <v>84</v>
+      <c r="T18" s="62"/>
+      <c r="U18" s="110" t="s">
+        <v>83</v>
       </c>
-      <c r="V18" s="6"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
     </row>
     <row r="19" spans="20:25">
-      <c r="T19" s="63"/>
+      <c r="T19" s="62"/>
       <c r="V19" s="6"/>
     </row>
     <row r="20" spans="20:25">
-      <c r="T20" s="63"/>
-      <c r="U20" s="60" t="s">
-        <v>86</v>
+      <c r="T20" s="62"/>
+      <c r="U20" s="59" t="s">
+        <v>85</v>
       </c>
       <c r="V20" s="6"/>
     </row>
     <row r="21" spans="20:25">
-      <c r="T21" s="63"/>
-      <c r="U21" s="62" t="s">
-        <v>87</v>
+      <c r="T21" s="62"/>
+      <c r="U21" s="61" t="s">
+        <v>86</v>
       </c>
       <c r="V21" s="6"/>
     </row>
     <row r="22" spans="20:25">
-      <c r="T22" s="63"/>
-      <c r="U22" s="62" t="s">
-        <v>88</v>
+      <c r="T22" s="62"/>
+      <c r="U22" s="61" t="s">
+        <v>87</v>
       </c>
       <c r="V22" s="6"/>
     </row>
     <row r="23" spans="20:25">
-      <c r="T23" s="63"/>
-      <c r="U23" s="62" t="s">
-        <v>104</v>
+      <c r="T23" s="62"/>
+      <c r="U23" s="61" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="20:25">
-      <c r="U25" s="60" t="s">
-        <v>89</v>
+      <c r="U25" s="59" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="20:25">
-      <c r="U26" s="62" t="s">
-        <v>90</v>
+      <c r="U26" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -44157,7 +45622,7 @@
       <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="20:25">
-      <c r="U27" s="62" t="s">
+      <c r="U27" s="61" t="s">
         <v>24</v>
       </c>
       <c r="V27" s="6" t="s">
@@ -44210,85 +45675,90 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
     </row>
-    <row r="33" spans="21:21">
-      <c r="U33" s="62"/>
+    <row r="33" spans="21:26">
+      <c r="U33" s="61"/>
     </row>
-    <row r="34" spans="21:21">
-      <c r="U34" s="64" t="s">
+    <row r="34" spans="21:26">
+      <c r="U34" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="21:26">
+      <c r="U35" s="110" t="s">
         <v>91</v>
       </c>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="111"/>
     </row>
-    <row r="35" spans="21:21">
-      <c r="U35" s="62" t="s">
+    <row r="36" spans="21:26">
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="21:26">
+      <c r="U37" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="21:26">
+      <c r="U38" s="61" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="21:21">
-      <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="21:21">
-      <c r="U37" s="60" t="s">
+    <row r="39" spans="21:26">
+      <c r="U39" s="61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="21:21">
-      <c r="U38" s="62" t="s">
-        <v>93</v>
+    <row r="40" spans="21:26">
+      <c r="U40" s="61" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="39" spans="21:21">
-      <c r="U39" s="62" t="s">
+    <row r="41" spans="21:26">
+      <c r="U41" s="61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="21:21">
-      <c r="U40" s="62" t="s">
+    <row r="42" spans="21:26">
+      <c r="U42" s="61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="21:26">
+      <c r="U43" s="61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="21:21">
-      <c r="U41" s="62" t="s">
+    <row r="45" spans="21:26">
+      <c r="U45" s="59" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="21:21">
-      <c r="U42" s="62" t="s">
-        <v>8</v>
-      </c>
+    <row r="46" spans="21:26">
+      <c r="U46" s="61"/>
     </row>
-    <row r="43" spans="21:21">
-      <c r="U43" s="62" t="s">
-        <v>96</v>
-      </c>
+    <row r="47" spans="21:26">
+      <c r="U47" s="61"/>
     </row>
-    <row r="45" spans="21:21">
-      <c r="U45" s="60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="21:21">
-      <c r="U46" s="62"/>
-    </row>
-    <row r="47" spans="21:21">
-      <c r="U47" s="62"/>
-    </row>
-    <row r="48" spans="21:21">
-      <c r="U48" s="62"/>
+    <row r="48" spans="21:26">
+      <c r="U48" s="61"/>
     </row>
     <row r="49" spans="21:21">
-      <c r="U49" s="62"/>
+      <c r="U49" s="61"/>
     </row>
     <row r="50" spans="21:21">
-      <c r="U50" s="62"/>
+      <c r="U50" s="61"/>
     </row>
     <row r="52" spans="21:21">
-      <c r="U52" s="64" t="s">
-        <v>106</v>
+      <c r="U52" s="63" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
@@ -44304,10 +45774,10 @@
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>21</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>49</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -44326,27 +45796,27 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="AB75" sqref="AB75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18">
+    <row r="2" spans="2:2" ht="18.75">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="11:11">
-      <c r="K49" s="58"/>
+      <c r="K49" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44359,17 +45829,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="9" max="11" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="9" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
+    <row r="2" spans="2:11" ht="18.75">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -44378,14 +45848,14 @@
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="2:11" ht="15">
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="2:11" ht="15">
+    <row r="5" spans="2:11">
       <c r="B5" s="24"/>
     </row>
   </sheetData>
@@ -44399,17 +45869,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="9" max="11" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="9" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -44418,13 +45888,13 @@
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15">
+    <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
@@ -44440,11 +45910,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44455,11 +45925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="HH219" sqref="HH219:HH220"/>
+    <sheetView topLeftCell="A174" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="GR267" sqref="GR267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44470,11 +45940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="GF375" sqref="GF375"/>
+    <sheetView topLeftCell="A171" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="HF565" sqref="HF565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Document/Kho Spare part_V1.xlsx
+++ b/Document/Kho Spare part_V1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="프로그램 개발 의뢰서 양식" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>XÂY DỰNG HỆ THỐNG KHO - SPARE PART</t>
   </si>
@@ -577,6 +577,12 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -788,7 +794,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1270,6 +1282,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1387,23 +1419,9 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3869,8 +3887,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5100951" y="2025970"/>
-          <a:ext cx="323756" cy="2519543"/>
+          <a:off x="5138253" y="2021462"/>
+          <a:ext cx="326124" cy="2537968"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3884,10 +3902,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2519543"/>
+                <a:pt x="0" y="2537968"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="323756" y="2519543"/>
+                <a:pt x="326124" y="2537968"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3928,8 +3946,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5100951" y="2025970"/>
-          <a:ext cx="323756" cy="1568013"/>
+          <a:off x="5138253" y="2021462"/>
+          <a:ext cx="326124" cy="1579480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3943,10 +3961,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1568013"/>
+                <a:pt x="0" y="1579480"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="323756" y="1568013"/>
+                <a:pt x="326124" y="1579480"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3987,8 +4005,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5100951" y="2025970"/>
-          <a:ext cx="323756" cy="616484"/>
+          <a:off x="5138253" y="2021462"/>
+          <a:ext cx="326124" cy="620992"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4002,10 +4020,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="616484"/>
+                <a:pt x="0" y="620992"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="323756" y="616484"/>
+                <a:pt x="326124" y="620992"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4046,8 +4064,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3524487" y="1074441"/>
-          <a:ext cx="2439816" cy="281438"/>
+          <a:off x="3550260" y="1062974"/>
+          <a:ext cx="2457657" cy="283496"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4061,13 +4079,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="140719"/>
+                <a:pt x="0" y="141748"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2439816" y="140719"/>
+                <a:pt x="2457657" y="141748"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2439816" y="281438"/>
+                <a:pt x="2457657" y="283496"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4108,8 +4126,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2661135" y="2025970"/>
-          <a:ext cx="323756" cy="1568013"/>
+          <a:off x="2680595" y="2021462"/>
+          <a:ext cx="326124" cy="1579480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4123,10 +4141,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1568013"/>
+                <a:pt x="0" y="1579480"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="323756" y="1568013"/>
+                <a:pt x="326124" y="1579480"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4167,8 +4185,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2661135" y="2025970"/>
-          <a:ext cx="323756" cy="616484"/>
+          <a:off x="2680595" y="2021462"/>
+          <a:ext cx="326124" cy="620992"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4182,10 +4200,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="616484"/>
+                <a:pt x="0" y="620992"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="323756" y="616484"/>
+                <a:pt x="326124" y="620992"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4226,8 +4244,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3478767" y="1074441"/>
-          <a:ext cx="91440" cy="281438"/>
+          <a:off x="3504540" y="1062974"/>
+          <a:ext cx="91440" cy="283496"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4241,7 +4259,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="281438"/>
+                <a:pt x="45720" y="283496"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4282,8 +4300,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="221319" y="2025970"/>
-          <a:ext cx="323756" cy="616484"/>
+          <a:off x="222938" y="2021462"/>
+          <a:ext cx="326124" cy="620992"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4297,10 +4315,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="616484"/>
+                <a:pt x="0" y="620992"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="323756" y="616484"/>
+                <a:pt x="326124" y="620992"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4341,8 +4359,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1084670" y="1074441"/>
-          <a:ext cx="2439816" cy="281438"/>
+          <a:off x="1092602" y="1062974"/>
+          <a:ext cx="2457657" cy="283496"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4353,16 +4371,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2439816" y="0"/>
+                <a:pt x="2457657" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2439816" y="140719"/>
+                <a:pt x="2457657" y="141748"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="140719"/>
+                <a:pt x="0" y="141748"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="281438"/>
+                <a:pt x="0" y="283496"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4403,8 +4421,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2553477" y="404349"/>
-          <a:ext cx="1942018" cy="670091"/>
+          <a:off x="2572150" y="387983"/>
+          <a:ext cx="1956219" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4516,8 +4534,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2553477" y="404349"/>
-        <a:ext cx="1942018" cy="670091"/>
+        <a:off x="2572150" y="387983"/>
+        <a:ext cx="1956219" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C5DEF534-E821-1940-9E99-E4D5D798D11A}">
@@ -4527,8 +4545,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482" y="1355879"/>
-          <a:ext cx="2158377" cy="670091"/>
+          <a:off x="5522" y="1346471"/>
+          <a:ext cx="2174161" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4607,8 +4625,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5482" y="1355879"/>
-        <a:ext cx="2158377" cy="670091"/>
+        <a:off x="5522" y="1346471"/>
+        <a:ext cx="2174161" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DB1F998C-6F95-844C-8AF2-C4CEE852C71B}">
@@ -4618,8 +4636,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="545076" y="2307409"/>
-          <a:ext cx="1340182" cy="670091"/>
+          <a:off x="549062" y="2304959"/>
+          <a:ext cx="1349983" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4679,8 +4697,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="545076" y="2307409"/>
-        <a:ext cx="1340182" cy="670091"/>
+        <a:off x="549062" y="2304959"/>
+        <a:ext cx="1349983" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DE6C3323-EE02-AD44-8B26-7BD83C498C6E}">
@@ -4690,8 +4708,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2445298" y="1355879"/>
-          <a:ext cx="2158377" cy="670091"/>
+          <a:off x="2463179" y="1346471"/>
+          <a:ext cx="2174161" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4774,8 +4792,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2445298" y="1355879"/>
-        <a:ext cx="2158377" cy="670091"/>
+        <a:off x="2463179" y="1346471"/>
+        <a:ext cx="2174161" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6557879F-E172-D741-B59C-7DDE5355AD7D}">
@@ -4785,8 +4803,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2984892" y="2307409"/>
-          <a:ext cx="1340182" cy="670091"/>
+          <a:off x="3006720" y="2304959"/>
+          <a:ext cx="1349983" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4852,8 +4870,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2984892" y="2307409"/>
-        <a:ext cx="1340182" cy="670091"/>
+        <a:off x="3006720" y="2304959"/>
+        <a:ext cx="1349983" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8A50514A-F660-B340-9C8A-AF508EAB63EB}">
@@ -4863,8 +4881,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2984892" y="3258939"/>
-          <a:ext cx="1340182" cy="670091"/>
+          <a:off x="3006720" y="3263447"/>
+          <a:ext cx="1349983" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4923,8 +4941,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2984892" y="3258939"/>
-        <a:ext cx="1340182" cy="670091"/>
+        <a:off x="3006720" y="3263447"/>
+        <a:ext cx="1349983" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{116B8BF1-22F6-EB44-B282-F7430A9D6037}">
@@ -4934,8 +4952,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4885114" y="1355879"/>
-          <a:ext cx="2158377" cy="670091"/>
+          <a:off x="4920837" y="1346471"/>
+          <a:ext cx="2174161" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5018,8 +5036,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4885114" y="1355879"/>
-        <a:ext cx="2158377" cy="670091"/>
+        <a:off x="4920837" y="1346471"/>
+        <a:ext cx="2174161" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DE982E95-0A61-DB48-902A-5585985E98F8}">
@@ -5029,8 +5047,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5424708" y="2307409"/>
-          <a:ext cx="1340182" cy="670091"/>
+          <a:off x="5464377" y="2304959"/>
+          <a:ext cx="1349983" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5090,8 +5108,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5424708" y="2307409"/>
-        <a:ext cx="1340182" cy="670091"/>
+        <a:off x="5464377" y="2304959"/>
+        <a:ext cx="1349983" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{34EE1FDC-1ED1-D74B-A6BE-B4A6AF9DA276}">
@@ -5101,8 +5119,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5424708" y="3258939"/>
-          <a:ext cx="1340182" cy="670091"/>
+          <a:off x="5464377" y="3263447"/>
+          <a:ext cx="1349983" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5165,8 +5183,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5424708" y="3258939"/>
-        <a:ext cx="1340182" cy="670091"/>
+        <a:off x="5464377" y="3263447"/>
+        <a:ext cx="1349983" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D5C3F140-941B-194C-8F6C-FB79C733DC94}">
@@ -5176,8 +5194,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5424708" y="4210468"/>
-          <a:ext cx="1340182" cy="670091"/>
+          <a:off x="5464377" y="4221935"/>
+          <a:ext cx="1349983" cy="674991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5237,8 +5255,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5424708" y="4210468"/>
-        <a:ext cx="1340182" cy="670091"/>
+        <a:off x="5464377" y="4221935"/>
+        <a:ext cx="1349983" cy="674991"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -44291,7 +44309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L39"/>
+  <dimension ref="D3:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
@@ -44306,37 +44324,37 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" ht="15.75" thickBot="1"/>
-    <row r="4" spans="4:12" ht="23.25">
-      <c r="D4" s="76" t="s">
+    <row r="3" spans="4:15" ht="15.75" thickBot="1"/>
+    <row r="4" spans="4:15" ht="23.25">
+      <c r="D4" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
     </row>
-    <row r="5" spans="4:12">
-      <c r="D5" s="79" t="s">
+    <row r="5" spans="4:15">
+      <c r="D5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
-    <row r="6" spans="4:12">
+    <row r="6" spans="4:15">
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
     </row>
-    <row r="7" spans="4:12" ht="59.25" customHeight="1">
-      <c r="D7" s="84" t="s">
+    <row r="7" spans="4:15" ht="59.25" customHeight="1">
+      <c r="D7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="85"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="53" t="s">
         <v>70</v>
       </c>
@@ -44347,11 +44365,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="33" customHeight="1">
-      <c r="D8" s="84" t="s">
+    <row r="8" spans="4:15" ht="33" customHeight="1">
+      <c r="D8" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="54" t="s">
         <v>51</v>
       </c>
@@ -44363,79 +44381,82 @@
       </c>
       <c r="L8" s="52"/>
     </row>
-    <row r="9" spans="4:12" ht="38.25" customHeight="1">
-      <c r="D9" s="84" t="s">
+    <row r="9" spans="4:15" ht="38.25" customHeight="1">
+      <c r="D9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
+      <c r="O9" s="30" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="10" spans="4:12" ht="9.75" customHeight="1">
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+    <row r="10" spans="4:15" ht="9.75" customHeight="1">
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
     </row>
-    <row r="11" spans="4:12" ht="11.25" customHeight="1">
-      <c r="D11" s="64" t="s">
+    <row r="11" spans="4:15" ht="11.25" customHeight="1">
+      <c r="D11" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
     </row>
-    <row r="12" spans="4:12" ht="15" hidden="1" customHeight="1">
-      <c r="D12" s="64"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+    <row r="12" spans="4:15" ht="15" hidden="1" customHeight="1">
+      <c r="D12" s="74"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
     </row>
-    <row r="13" spans="4:12">
-      <c r="D13" s="64"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
+    <row r="13" spans="4:15">
+      <c r="D13" s="74"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
     </row>
-    <row r="14" spans="4:12">
-      <c r="D14" s="64"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
+    <row r="14" spans="4:15">
+      <c r="D14" s="74"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107"/>
     </row>
-    <row r="15" spans="4:12">
-      <c r="D15" s="64"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+    <row r="15" spans="4:15">
+      <c r="D15" s="74"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
     </row>
-    <row r="16" spans="4:12">
-      <c r="D16" s="64"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
+    <row r="16" spans="4:15">
+      <c r="D16" s="74"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="64"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
     </row>
     <row r="18" spans="4:8" ht="15" customHeight="1">
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="74" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="35" t="s">
@@ -44446,7 +44467,7 @@
       <c r="H18" s="37"/>
     </row>
     <row r="19" spans="4:8" ht="15" customHeight="1">
-      <c r="D19" s="64"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="51" t="s">
         <v>62</v>
       </c>
@@ -44455,7 +44476,7 @@
       <c r="H19" s="39"/>
     </row>
     <row r="20" spans="4:8" ht="15" customHeight="1">
-      <c r="D20" s="64"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="51" t="s">
         <v>63</v>
       </c>
@@ -44464,7 +44485,7 @@
       <c r="H20" s="39"/>
     </row>
     <row r="21" spans="4:8" ht="15" customHeight="1">
-      <c r="D21" s="64"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="51" t="s">
         <v>64</v>
       </c>
@@ -44473,7 +44494,7 @@
       <c r="H21" s="39"/>
     </row>
     <row r="22" spans="4:8" ht="15" customHeight="1">
-      <c r="D22" s="65"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="51" t="s">
         <v>65</v>
       </c>
@@ -44482,7 +44503,7 @@
       <c r="H22" s="39"/>
     </row>
     <row r="23" spans="4:8" ht="15" customHeight="1">
-      <c r="D23" s="65"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="51" t="s">
         <v>66</v>
       </c>
@@ -44491,14 +44512,14 @@
       <c r="H23" s="39"/>
     </row>
     <row r="24" spans="4:8" ht="15" customHeight="1">
-      <c r="D24" s="65"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="42"/>
     </row>
     <row r="25" spans="4:8">
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="111" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="43" t="s">
@@ -44509,7 +44530,7 @@
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="4:8">
-      <c r="D26" s="102"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="46" t="s">
         <v>60</v>
       </c>
@@ -44518,7 +44539,7 @@
       <c r="H26" s="48"/>
     </row>
     <row r="27" spans="4:8">
-      <c r="D27" s="102"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="46" t="s">
         <v>59</v>
       </c>
@@ -44527,90 +44548,90 @@
       <c r="H27" s="48"/>
     </row>
     <row r="28" spans="4:8">
-      <c r="D28" s="102"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="48"/>
     </row>
     <row r="29" spans="4:8">
-      <c r="D29" s="102"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="46"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="4:8">
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
     </row>
     <row r="31" spans="4:8">
-      <c r="D31" s="65"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="72"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="82"/>
     </row>
     <row r="32" spans="4:8">
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="72"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="82"/>
     </row>
     <row r="33" spans="4:8">
-      <c r="D33" s="65"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="82"/>
     </row>
     <row r="34" spans="4:8">
-      <c r="D34" s="65"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="82"/>
     </row>
     <row r="35" spans="4:8">
-      <c r="D35" s="65"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
     </row>
     <row r="36" spans="4:8">
-      <c r="D36" s="65"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="72"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
     </row>
     <row r="37" spans="4:8">
-      <c r="D37" s="65"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82"/>
     </row>
     <row r="38" spans="4:8">
-      <c r="D38" s="65"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="72"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
     </row>
     <row r="39" spans="4:8" ht="15.75" thickBot="1">
-      <c r="D39" s="66"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -44639,8 +44660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N97" sqref="N97"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44679,27 +44700,30 @@
       </c>
     </row>
     <row r="31" spans="2:25">
+      <c r="N31" t="s">
+        <v>112</v>
+      </c>
       <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:25">
-      <c r="Y32" s="103" t="s">
+      <c r="Y32" s="64" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="33" spans="25:25">
-      <c r="Y33" s="104" t="s">
+      <c r="Y33" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="25:25">
-      <c r="Y34" s="104" t="s">
+      <c r="Y34" s="65" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="25:25">
-      <c r="Y35" s="103"/>
+      <c r="Y35" s="64"/>
     </row>
     <row r="50" spans="2:26" ht="15.75" thickBot="1"/>
     <row r="51" spans="2:26">
@@ -44912,16 +44936,16 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="107" t="s">
+      <c r="S57" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
-      <c r="Y57" s="108"/>
-      <c r="Z57" s="103"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="64"/>
     </row>
     <row r="58" spans="2:26">
       <c r="B58" s="17" t="s">
@@ -44945,16 +44969,16 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="109" t="s">
+      <c r="S58" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="T58" s="106"/>
-      <c r="U58" s="106"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
-      <c r="X58" s="106"/>
-      <c r="Y58" s="108"/>
-      <c r="Z58" s="103"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="69"/>
+      <c r="Z58" s="64"/>
     </row>
     <row r="59" spans="2:26">
       <c r="B59" s="17" t="s">
@@ -45103,13 +45127,13 @@
       <c r="Y63" s="8"/>
     </row>
     <row r="64" spans="2:26">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -45131,13 +45155,13 @@
       <c r="Y64" s="8"/>
     </row>
     <row r="65" spans="2:25">
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -45159,13 +45183,13 @@
       <c r="Y65" s="8"/>
     </row>
     <row r="66" spans="2:25">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -45187,13 +45211,13 @@
       <c r="Y66" s="8"/>
     </row>
     <row r="67" spans="2:25">
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -45215,11 +45239,11 @@
       <c r="Y67" s="8"/>
     </row>
     <row r="68" spans="2:25">
-      <c r="B68" s="105" t="s">
+      <c r="B68" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -45447,10 +45471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="T2:AE52"/>
+  <dimension ref="T2:AF52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -45560,59 +45584,70 @@
       </c>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="20:25">
+    <row r="17" spans="20:32">
       <c r="T17" s="62"/>
       <c r="U17" s="61" t="s">
         <v>84</v>
       </c>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="20:25">
+    <row r="18" spans="20:32">
       <c r="T18" s="62"/>
-      <c r="U18" s="110" t="s">
+      <c r="U18" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="V18" s="106"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
     </row>
-    <row r="19" spans="20:25">
+    <row r="19" spans="20:32">
       <c r="T19" s="62"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="20:25">
+    <row r="20" spans="20:32">
       <c r="T20" s="62"/>
       <c r="U20" s="59" t="s">
         <v>85</v>
       </c>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="20:25">
+    <row r="21" spans="20:32">
       <c r="T21" s="62"/>
       <c r="U21" s="61" t="s">
         <v>86</v>
       </c>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="20:25">
+    <row r="22" spans="20:32">
       <c r="T22" s="62"/>
       <c r="U22" s="61" t="s">
         <v>87</v>
       </c>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="20:25">
+    <row r="23" spans="20:32">
       <c r="T23" s="62"/>
-      <c r="U23" s="61" t="s">
+      <c r="U23" s="113" t="s">
         <v>103</v>
       </c>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
     </row>
-    <row r="25" spans="20:25">
+    <row r="25" spans="20:32">
       <c r="U25" s="59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="20:25">
+    <row r="26" spans="20:32">
       <c r="U26" s="61" t="s">
         <v>89</v>
       </c>
@@ -45621,7 +45656,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
     </row>
-    <row r="27" spans="20:25">
+    <row r="27" spans="20:32">
       <c r="U27" s="61" t="s">
         <v>24</v>
       </c>
@@ -45632,14 +45667,14 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
-    <row r="28" spans="20:25">
+    <row r="28" spans="20:32">
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="20:25">
+    <row r="29" spans="20:32">
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6" t="s">
@@ -45648,7 +45683,7 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
     </row>
-    <row r="30" spans="20:25">
+    <row r="30" spans="20:32">
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6" t="s">
@@ -45657,7 +45692,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
     </row>
-    <row r="31" spans="20:25">
+    <row r="31" spans="20:32">
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6" t="s">
@@ -45666,7 +45701,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
     </row>
-    <row r="32" spans="20:25">
+    <row r="32" spans="20:32">
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6" t="s">
@@ -45684,14 +45719,14 @@
       </c>
     </row>
     <row r="35" spans="21:26">
-      <c r="U35" s="110" t="s">
+      <c r="U35" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="111"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
     </row>
     <row r="36" spans="21:26">
       <c r="U36" s="9"/>
@@ -45796,7 +45831,7 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB75" sqref="AB75"/>
+      <selection activeCell="AB114" sqref="AB114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45829,7 +45864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -45870,7 +45905,7 @@
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45910,7 +45945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
@@ -45925,7 +45960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="GR267" sqref="GR267"/>
     </sheetView>
   </sheetViews>
@@ -45940,8 +45975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="HF565" sqref="HF565"/>
+    <sheetView topLeftCell="A180" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="FX373" sqref="FX373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
